--- a/notebooks/bases/dfABIMOTOv13.xlsx
+++ b/notebooks/bases/dfABIMOTOv13.xlsx
@@ -14,23 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="33">
-  <si>
-    <t>ITEM</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>PARTES E PEÇAS</t>
   </si>
   <si>
-    <t>MOTO PARTS</t>
-  </si>
-  <si>
-    <t>NCM</t>
-  </si>
-  <si>
-    <t>UNI</t>
-  </si>
-  <si>
     <t>VMLE</t>
   </si>
   <si>
@@ -83,36 +71,6 @@
   </si>
   <si>
     <t>KIT TRANSMISSÃO XTZ - 250 LANDER SEM RETENTOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRANS.SET 1045 C100 BIZ 15D+428HX108+35D W/PR. </t>
-  </si>
-  <si>
-    <t>TRANS.SET 1045 (CHAIN + SPROCKET) CBX 250 TWISTER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRANSMISSION SET + H CHAIN FAZER 251 </t>
-  </si>
-  <si>
-    <t>TRANS.SET 1045 TITAN 2000/04 14D+428HX116+44 W/P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRANS.SET 1045 YBR-125 2000/2002 14D+428HX118+43D </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRANS.SET 1045 TITAN 16D+428HX118+43D W/PROT. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRANSMISSION SET + H CHAIN XRE 301 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRANSMISSION SET + H CHAIN 250 LANDER </t>
-  </si>
-  <si>
-    <t>87141000</t>
-  </si>
-  <si>
-    <t>KIT</t>
   </si>
 </sst>
 </file>
@@ -470,13 +428,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,384 +444,180 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B2">
+        <v>6.47</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B3">
+        <v>3.9</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B4">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>78</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B5">
+        <v>6.25</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2">
-        <v>6.47</v>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>79</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B6">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3">
-        <v>3.9</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>80</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B7">
+        <v>4.5</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>81</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B8">
+        <v>7.5</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5">
-        <v>6.25</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>82</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B9">
+        <v>4.3</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6">
+      <c r="B10">
+        <v>7.7</v>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>4.2</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>7.97</v>
+      </c>
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>4.3</v>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
         <v>8.199999999999999</v>
       </c>
-      <c r="G6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>83</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7">
-        <v>4.5</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>84</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8">
-        <v>7.5</v>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>85</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9">
-        <v>4.3</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>86</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10">
-        <v>7.7</v>
-      </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>87</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11">
-        <v>4.2</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>88</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12">
-        <v>7.97</v>
-      </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>89</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13">
-        <v>4.3</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>90</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14">
-        <v>9</v>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>91</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15">
-        <v>6</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>92</v>
-      </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>93</v>
-      </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17">
+      <c r="B17">
         <v>4.4</v>
       </c>
-      <c r="G17" t="b">
+      <c r="C17" t="b">
         <v>0</v>
       </c>
     </row>

--- a/notebooks/bases/dfABIMOTOv13.xlsx
+++ b/notebooks/bases/dfABIMOTOv13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>PARTES E PEÇAS</t>
   </si>
@@ -25,6 +25,9 @@
     <t>RETENTOR</t>
   </si>
   <si>
+    <t>APLICACAO</t>
+  </si>
+  <si>
     <t>KIT TRANSMISSÃO 1045 C100 BIZ 15D+428HX108+35D C/PROT. COM RETENTOR</t>
   </si>
   <si>
@@ -71,6 +74,27 @@
   </si>
   <si>
     <t>KIT TRANSMISSÃO XTZ - 250 LANDER SEM RETENTOR</t>
+  </si>
+  <si>
+    <t>HONDA BIZ C100 125 C125</t>
+  </si>
+  <si>
+    <t>HONDA TWISTER CBX 250</t>
+  </si>
+  <si>
+    <t>YAMAHA FAZER YS250 250</t>
+  </si>
+  <si>
+    <t>HONDA CG TIT TITAN 125 150 160</t>
+  </si>
+  <si>
+    <t>YAMAHA FACTOR YBR 125 YBR125</t>
+  </si>
+  <si>
+    <t>HONDA XRE 300</t>
+  </si>
+  <si>
+    <t>YAMAHA LANDER XTZ 250</t>
   </si>
 </sst>
 </file>
@@ -428,13 +452,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,10 +468,13 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>6.47</v>
@@ -455,10 +482,13 @@
       <c r="C2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>3.9</v>
@@ -466,10 +496,13 @@
       <c r="C3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>9.300000000000001</v>
@@ -477,10 +510,13 @@
       <c r="C4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>6.25</v>
@@ -488,10 +524,13 @@
       <c r="C5" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>8.199999999999999</v>
@@ -499,10 +538,13 @@
       <c r="C6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>4.5</v>
@@ -510,10 +552,13 @@
       <c r="C7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>7.5</v>
@@ -521,10 +566,13 @@
       <c r="C8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>4.3</v>
@@ -532,10 +580,13 @@
       <c r="C9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>7.7</v>
@@ -543,10 +594,13 @@
       <c r="C10" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>4.2</v>
@@ -554,10 +608,13 @@
       <c r="C11" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>7.97</v>
@@ -565,10 +622,13 @@
       <c r="C12" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>4.3</v>
@@ -576,10 +636,13 @@
       <c r="C13" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>9</v>
@@ -587,10 +650,13 @@
       <c r="C14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>6</v>
@@ -598,10 +664,13 @@
       <c r="C15" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>8.199999999999999</v>
@@ -609,16 +678,22 @@
       <c r="C16" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17">
         <v>4.4</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
